--- a/labels/内科labels.xlsx
+++ b/labels/内科labels.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\大学课程资料\BigAI\胃部病理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6690F3-DC57-4F96-8A23-8B022B01F947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="8440"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,19 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -404,9 +397,6 @@
     <t>汤忠元</t>
   </si>
   <si>
-    <t>S202120088</t>
-  </si>
-  <si>
     <t>马良胜</t>
   </si>
   <si>
@@ -530,9 +520,6 @@
     <t>沈九一</t>
   </si>
   <si>
-    <t>J202220887</t>
-  </si>
-  <si>
     <t>谢明芳</t>
   </si>
   <si>
@@ -561,19 +548,21 @@
   </si>
   <si>
     <t>S202227609</t>
+  </si>
+  <si>
+    <t>J202120088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S202220887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,151 +571,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,198 +594,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -934,255 +607,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,90 +623,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1286,7 +789,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1314,154 +817,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1711,24 +1100,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1739,7 +1128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1750,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1761,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1772,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1783,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1794,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1805,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1816,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1827,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1838,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1849,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1860,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1871,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1882,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1893,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1904,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1915,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1926,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1937,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1948,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1959,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1970,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1981,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1992,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -2003,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2014,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -2025,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -2036,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -2047,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2058,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -2069,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -2080,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2091,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -2102,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -2113,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -2124,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -2135,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -2146,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -2157,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -2168,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -2179,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -2190,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -2201,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2212,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2223,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2234,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2245,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2256,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2267,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -2278,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2289,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -2300,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -2311,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -2322,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2333,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -2344,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>113</v>
       </c>
@@ -2355,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -2366,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -2377,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2388,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -2399,308 +1788,306 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>123</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>124</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
         <v>125</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>126</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
         <v>127</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>128</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
         <v>129</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>130</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
         <v>131</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>132</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
         <v>133</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>134</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
         <v>135</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>136</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
         <v>137</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>138</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
         <v>139</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>140</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>141</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>142</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>143</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>144</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
         <v>145</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>146</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
         <v>147</v>
-      </c>
-      <c r="B74" t="s">
-        <v>148</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
         <v>149</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>150</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>151</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>152</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
         <v>153</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>154</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
         <v>155</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>156</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
         <v>157</v>
-      </c>
-      <c r="B79" t="s">
-        <v>158</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
         <v>159</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>160</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
         <v>161</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>162</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
         <v>163</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>164</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="B83" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>165</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>166</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>167</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>168</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>169</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>170</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>171</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>172</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>173</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>174</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>175</v>
-      </c>
-      <c r="B88" t="s">
-        <v>176</v>
-      </c>
       <c r="C88">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C88" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="C1:C88" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>